--- a/earlywarning-pom/earlywarning-config/src/baf-instances/04_Inst_BusinessLine.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/04_Inst_BusinessLine.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco.calabretta\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -490,9 +490,6 @@
     <t>FILTER_VAR_CORPORATE</t>
   </si>
   <si>
-    <t>CORPORATE</t>
-  </si>
-  <si>
     <t>R_FILTER_OPERATOR_01</t>
   </si>
   <si>
@@ -505,7 +502,10 @@
     <t>SEGMENT</t>
   </si>
   <si>
-    <t>(SEGMENT = 'CORPORATE')</t>
+    <t>(SEGMENT = 'W01')</t>
+  </si>
+  <si>
+    <t>W01</t>
   </si>
 </sst>
 </file>
@@ -632,6 +632,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10001250" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -680,6 +728,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -728,6 +824,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -776,6 +920,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -824,6 +1016,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -872,6 +1112,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8867775" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -920,6 +1208,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -968,6 +1304,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1016,6 +1400,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1057,6 +1489,54 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -1333,7 +1813,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1865,7 @@
         <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2426,7 +2906,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2485,7 +2965,7 @@
         <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2500,7 +2980,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,19 +3026,19 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
         <v>74</v>
       </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
         <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2573,7 +3053,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,7 +3133,7 @@
         <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/04_Inst_BusinessLine.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/04_Inst_BusinessLine.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6435" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Business_Line" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="135">
   <si>
     <t>Business_Line</t>
   </si>
@@ -460,9 +460,6 @@
     <t>BL000001</t>
   </si>
   <si>
-    <t>Corporate</t>
-  </si>
-  <si>
     <t>BRAU0000001</t>
   </si>
   <si>
@@ -506,13 +503,184 @@
   </si>
   <si>
     <t>W01</t>
+  </si>
+  <si>
+    <t>BL000002</t>
+  </si>
+  <si>
+    <t>BL000003</t>
+  </si>
+  <si>
+    <t>BL000004</t>
+  </si>
+  <si>
+    <t>BL000000</t>
+  </si>
+  <si>
+    <t>(SEGMENT = 'W00')</t>
+  </si>
+  <si>
+    <t>(SEGMENT = 'W02')</t>
+  </si>
+  <si>
+    <t>(SEGMENT = 'W03')</t>
+  </si>
+  <si>
+    <t>(SEGMENT = 'W04')</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>CORPORATE</t>
+  </si>
+  <si>
+    <t>BANCHE</t>
+  </si>
+  <si>
+    <t>NBFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTI PUBBLICI </t>
+  </si>
+  <si>
+    <t>FI0000000</t>
+  </si>
+  <si>
+    <t>FI0000002</t>
+  </si>
+  <si>
+    <t>FI0000003</t>
+  </si>
+  <si>
+    <t>FI0000004</t>
+  </si>
+  <si>
+    <t>R_FILTER_VAR_00</t>
+  </si>
+  <si>
+    <t>R_FILTER_VAR_02</t>
+  </si>
+  <si>
+    <t>R_FILTER_VAR_03</t>
+  </si>
+  <si>
+    <t>R_FILTER_VAR_04</t>
+  </si>
+  <si>
+    <t>OTHER_SEGMENT</t>
+  </si>
+  <si>
+    <t>BANCHE_SEGMENT</t>
+  </si>
+  <si>
+    <t>NBFI_SEGMENT</t>
+  </si>
+  <si>
+    <t>ENTI_PUBBLICI _SEGMENT</t>
+  </si>
+  <si>
+    <t>R_FILTER_OPERATOR_00</t>
+  </si>
+  <si>
+    <t>R_FILTER_OPERATOR_02</t>
+  </si>
+  <si>
+    <t>R_FILTER_OPERATOR_03</t>
+  </si>
+  <si>
+    <t>R_FILTER_OPERATOR_04</t>
+  </si>
+  <si>
+    <t>OTHER_EQUALS</t>
+  </si>
+  <si>
+    <t>BANCHE_EQUALS</t>
+  </si>
+  <si>
+    <t>NBFI_EQUALS</t>
+  </si>
+  <si>
+    <t>ENTI_PUBBLICI_EQUALS</t>
+  </si>
+  <si>
+    <t>FV0000000</t>
+  </si>
+  <si>
+    <t>W00</t>
+  </si>
+  <si>
+    <t>FV0000002</t>
+  </si>
+  <si>
+    <t>W02</t>
+  </si>
+  <si>
+    <t>FV0000003</t>
+  </si>
+  <si>
+    <t>W03</t>
+  </si>
+  <si>
+    <t>FV0000004</t>
+  </si>
+  <si>
+    <t>W04</t>
+  </si>
+  <si>
+    <t>FILTER_VAR_OTHER</t>
+  </si>
+  <si>
+    <t>FILTER_VAR_BACHE</t>
+  </si>
+  <si>
+    <t>FILTER_VAR_NBFI</t>
+  </si>
+  <si>
+    <t>FILTER_VAR_ENTI</t>
+  </si>
+  <si>
+    <t>BRAU0000000</t>
+  </si>
+  <si>
+    <t>BRAU0000002</t>
+  </si>
+  <si>
+    <t>BRAU0000003</t>
+  </si>
+  <si>
+    <t>BRAU0000004</t>
+  </si>
+  <si>
+    <t>OTHER_BL00001</t>
+  </si>
+  <si>
+    <t>BANCHE_BL00001</t>
+  </si>
+  <si>
+    <t>NBFI_BL00001</t>
+  </si>
+  <si>
+    <t>ENTI_BL00001</t>
+  </si>
+  <si>
+    <t>FILTER_OTHER</t>
+  </si>
+  <si>
+    <t>FILTER_BANCHE</t>
+  </si>
+  <si>
+    <t>FILTER_NBFI</t>
+  </si>
+  <si>
+    <t>FILTER_ENTI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -536,8 +704,14 @@
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,8 +723,38 @@
         <fgColor rgb="FFAC2524"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBD3DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -558,11 +762,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -570,6 +785,21 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,6 +886,102 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="10001250" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10001250" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10001250" cy="9572625"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -776,6 +1102,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9601200" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -872,6 +1294,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9563100"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -936,6 +1454,102 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1064,6 +1678,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9848850" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1136,6 +1846,102 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="8867775" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8867775" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9020175" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1256,6 +2062,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9563100"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1320,6 +2222,102 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1448,6 +2446,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1512,6 +2606,102 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1623,6 +2813,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1658,6 +2865,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1810,10 +3034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,40 +3075,111 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>61</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
+      <c r="C4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="6" width="19.5703125" customWidth="1"/>
@@ -1925,19 +3220,99 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
         <v>65</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
         <v>65</v>
       </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2782,9 +4157,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2831,18 +4208,98 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2903,16 +4360,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="6" width="19.5703125" customWidth="1"/>
@@ -2953,19 +4410,99 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
         <v>69</v>
       </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" t="s">
-        <v>76</v>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2977,17 +4514,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3026,19 +4564,99 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
         <v>73</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
         <v>74</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
         <v>74</v>
       </c>
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" t="s">
-        <v>75</v>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3050,10 +4668,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3121,19 +4739,19 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -3142,7 +4760,111 @@
         <v>45</v>
       </c>
       <c r="K3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
